--- a/China Traffic Accident Analysis/2011-2012新数据.xlsx
+++ b/China Traffic Accident Analysis/2011-2012新数据.xlsx
@@ -7,9 +7,9 @@
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="中西对比" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="152511" concurrentCalc="0"/>
 </workbook>
 </file>
 
@@ -340,7 +340,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$A$26</c:f>
+              <c:f>中西对比!$A$26</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -375,7 +375,7 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$B$25:$M$25</c:f>
+              <c:f>中西对比!$B$25:$M$25</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="12"/>
@@ -420,7 +420,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$B$26:$M$26</c:f>
+              <c:f>中西对比!$B$26:$M$26</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="12"/>
@@ -470,7 +470,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$A$27</c:f>
+              <c:f>中西对比!$A$27</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -505,7 +505,7 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$B$25:$M$25</c:f>
+              <c:f>中西对比!$B$25:$M$25</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="12"/>
@@ -550,7 +550,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$B$27:$M$27</c:f>
+              <c:f>中西对比!$B$27:$M$27</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="12"/>
@@ -597,7 +597,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$A$28</c:f>
+              <c:f>中西对比!$A$28</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -632,7 +632,7 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$B$25:$M$25</c:f>
+              <c:f>中西对比!$B$25:$M$25</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="12"/>
@@ -677,7 +677,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$B$28:$M$28</c:f>
+              <c:f>中西对比!$B$28:$M$28</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="12"/>
@@ -724,7 +724,7 @@
           <c:order val="3"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$A$29</c:f>
+              <c:f>中西对比!$A$29</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -759,7 +759,7 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$B$25:$M$25</c:f>
+              <c:f>中西对比!$B$25:$M$25</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="12"/>
@@ -804,7 +804,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$B$29:$M$29</c:f>
+              <c:f>中西对比!$B$29:$M$29</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="12"/>
@@ -851,7 +851,7 @@
           <c:order val="4"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$A$30</c:f>
+              <c:f>中西对比!$A$30</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -886,7 +886,7 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$B$25:$M$25</c:f>
+              <c:f>中西对比!$B$25:$M$25</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="12"/>
@@ -931,7 +931,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$B$30:$M$30</c:f>
+              <c:f>中西对比!$B$30:$M$30</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="12"/>
@@ -978,7 +978,7 @@
           <c:order val="5"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$A$31</c:f>
+              <c:f>中西对比!$A$31</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1013,7 +1013,7 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$B$25:$M$25</c:f>
+              <c:f>中西对比!$B$25:$M$25</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="12"/>
@@ -1058,7 +1058,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$B$31:$M$31</c:f>
+              <c:f>中西对比!$B$31:$M$31</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="12"/>
@@ -1110,11 +1110,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="478965120"/>
-        <c:axId val="478966240"/>
+        <c:axId val="299842304"/>
+        <c:axId val="299842864"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="478965120"/>
+        <c:axId val="299842304"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1213,7 +1213,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="478966240"/>
+        <c:crossAx val="299842864"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1221,7 +1221,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="478966240"/>
+        <c:axId val="299842864"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1328,7 +1328,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="478965120"/>
+        <c:crossAx val="299842304"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1442,7 +1442,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$A$34</c:f>
+              <c:f>中西对比!$A$34</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1477,7 +1477,7 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$B$33:$M$33</c:f>
+              <c:f>中西对比!$B$33:$M$33</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="12"/>
@@ -1522,7 +1522,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$B$34:$M$34</c:f>
+              <c:f>中西对比!$B$34:$M$34</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="12"/>
@@ -1572,7 +1572,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$A$35</c:f>
+              <c:f>中西对比!$A$35</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1607,7 +1607,7 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$B$33:$M$33</c:f>
+              <c:f>中西对比!$B$33:$M$33</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="12"/>
@@ -1652,7 +1652,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$B$35:$M$35</c:f>
+              <c:f>中西对比!$B$35:$M$35</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="12"/>
@@ -1699,7 +1699,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$A$36</c:f>
+              <c:f>中西对比!$A$36</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1734,7 +1734,7 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$B$33:$M$33</c:f>
+              <c:f>中西对比!$B$33:$M$33</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="12"/>
@@ -1779,7 +1779,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$B$36:$M$36</c:f>
+              <c:f>中西对比!$B$36:$M$36</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="12"/>
@@ -1826,7 +1826,7 @@
           <c:order val="3"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$A$37</c:f>
+              <c:f>中西对比!$A$37</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1861,7 +1861,7 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$B$33:$M$33</c:f>
+              <c:f>中西对比!$B$33:$M$33</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="12"/>
@@ -1906,7 +1906,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$B$37:$M$37</c:f>
+              <c:f>中西对比!$B$37:$M$37</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="12"/>
@@ -1953,7 +1953,7 @@
           <c:order val="4"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$A$38</c:f>
+              <c:f>中西对比!$A$38</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1988,7 +1988,7 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$B$33:$M$33</c:f>
+              <c:f>中西对比!$B$33:$M$33</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="12"/>
@@ -2033,7 +2033,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$B$38:$M$38</c:f>
+              <c:f>中西对比!$B$38:$M$38</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="12"/>
@@ -2080,7 +2080,7 @@
           <c:order val="5"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$A$39</c:f>
+              <c:f>中西对比!$A$39</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2115,7 +2115,7 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$B$33:$M$33</c:f>
+              <c:f>中西对比!$B$33:$M$33</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="12"/>
@@ -2160,7 +2160,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$B$39:$M$39</c:f>
+              <c:f>中西对比!$B$39:$M$39</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="12"/>
@@ -2212,11 +2212,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="532012864"/>
-        <c:axId val="532013424"/>
+        <c:axId val="299834464"/>
+        <c:axId val="299847904"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="532012864"/>
+        <c:axId val="299834464"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2315,7 +2315,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="532013424"/>
+        <c:crossAx val="299847904"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2323,7 +2323,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="532013424"/>
+        <c:axId val="299847904"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2437,7 +2437,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="532012864"/>
+        <c:crossAx val="299834464"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3988,7 +3988,7 @@
   <dimension ref="A1:M39"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M34" sqref="M34"/>
+      <selection activeCell="I48" sqref="I48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -4846,51 +4846,51 @@
         <v>1</v>
       </c>
       <c r="B26">
-        <f>(B2+B10)/B18</f>
+        <f t="shared" ref="B26:M26" si="0">(B2+B10)/B18</f>
         <v>0.8642185453008866</v>
       </c>
       <c r="C26">
-        <f>(C2+C10)/C18</f>
+        <f t="shared" si="0"/>
         <v>0.86848126528674741</v>
       </c>
       <c r="D26">
-        <f>(D2+D10)/D18</f>
+        <f t="shared" si="0"/>
         <v>0.89668872386357001</v>
       </c>
       <c r="E26">
-        <f>(E2+E10)/E18</f>
+        <f t="shared" si="0"/>
         <v>1.1352645064869114</v>
       </c>
       <c r="F26">
-        <f>(F2+F10)/F18</f>
+        <f t="shared" si="0"/>
         <v>1.2629515784423904</v>
       </c>
       <c r="G26">
-        <f>(G2+G10)/G18</f>
+        <f t="shared" si="0"/>
         <v>1.3743931189790406</v>
       </c>
       <c r="H26">
-        <f>(H2+H10)/H18</f>
+        <f t="shared" si="0"/>
         <v>1.4122197127829614</v>
       </c>
       <c r="I26">
-        <f>(I2+I10)/I18</f>
+        <f t="shared" si="0"/>
         <v>1.4268374534320749</v>
       </c>
       <c r="J26">
-        <f>(J2+J10)/J18</f>
+        <f t="shared" si="0"/>
         <v>1.4385674908013812</v>
       </c>
       <c r="K26">
-        <f>(K2+K10)/K18</f>
+        <f t="shared" si="0"/>
         <v>1.4545305460525417</v>
       </c>
       <c r="L26">
-        <f>(L2+L10)/L18</f>
+        <f t="shared" si="0"/>
         <v>1.422158131415669</v>
       </c>
       <c r="M26">
-        <f>(M2+M10)/M18</f>
+        <f t="shared" si="0"/>
         <v>1.3924072949519088</v>
       </c>
     </row>
@@ -4899,47 +4899,47 @@
         <v>2</v>
       </c>
       <c r="B27">
-        <f>(B3+B11)/B19</f>
+        <f t="shared" ref="B27:L27" si="1">(B3+B11)/B19</f>
         <v>0.48630175441482104</v>
       </c>
       <c r="C27">
-        <f>(C3+C11)/C19</f>
+        <f t="shared" si="1"/>
         <v>0.47006020544331689</v>
       </c>
       <c r="D27">
-        <f>(D3+D11)/D19</f>
+        <f t="shared" si="1"/>
         <v>0.46325945743925168</v>
       </c>
       <c r="E27">
-        <f>(E3+E11)/E19</f>
+        <f t="shared" si="1"/>
         <v>0.45804912355179811</v>
       </c>
       <c r="F27">
-        <f>(F3+F11)/F19</f>
+        <f t="shared" si="1"/>
         <v>0.44525574938914009</v>
       </c>
       <c r="G27">
-        <f>(G3+G11)/G19</f>
+        <f t="shared" si="1"/>
         <v>0.43818494334623592</v>
       </c>
       <c r="H27">
-        <f>(H3+H11)/H19</f>
+        <f t="shared" si="1"/>
         <v>0.42028363840154265</v>
       </c>
       <c r="I27">
-        <f>(I3+I11)/I19</f>
+        <f t="shared" si="1"/>
         <v>0.41012272567540081</v>
       </c>
       <c r="J27">
-        <f>(J3+J11)/J19</f>
+        <f t="shared" si="1"/>
         <v>0.40891632971129011</v>
       </c>
       <c r="K27">
-        <f>(K3+K11)/K19</f>
+        <f t="shared" si="1"/>
         <v>0.41924459054386565</v>
       </c>
       <c r="L27">
-        <f>(L3+L11)/L19</f>
+        <f t="shared" si="1"/>
         <v>0.42140266282282751</v>
       </c>
     </row>
@@ -4948,47 +4948,47 @@
         <v>3</v>
       </c>
       <c r="B28">
-        <f>(B4+B12)/B20</f>
+        <f t="shared" ref="B28:L28" si="2">(B4+B12)/B20</f>
         <v>1.3687772925764192</v>
       </c>
       <c r="C28">
-        <f>(C4+C12)/C20</f>
+        <f t="shared" si="2"/>
         <v>1.3623018018018018</v>
       </c>
       <c r="D28">
-        <f>(D4+D12)/D20</f>
+        <f t="shared" si="2"/>
         <v>1.3575140186915888</v>
       </c>
       <c r="E28">
-        <f>(E4+E12)/E20</f>
+        <f t="shared" si="2"/>
         <v>1.3585555555555555</v>
       </c>
       <c r="F28">
-        <f>(F4+F12)/F20</f>
+        <f t="shared" si="2"/>
         <v>1.3628190954773869</v>
       </c>
       <c r="G28">
-        <f>(G4+G12)/G20</f>
+        <f t="shared" si="2"/>
         <v>1.3648267877628053</v>
       </c>
       <c r="H28">
-        <f>(H4+H12)/H20</f>
+        <f t="shared" si="2"/>
         <v>1.3614803832743048</v>
       </c>
       <c r="I28">
-        <f>(I4+I12)/I20</f>
+        <f t="shared" si="2"/>
         <v>1.351407753046761</v>
       </c>
       <c r="J28">
-        <f>(J4+J12)/J20</f>
+        <f t="shared" si="2"/>
         <v>1.3587072159653693</v>
       </c>
       <c r="K28">
-        <f>(K4+K12)/K20</f>
+        <f t="shared" si="2"/>
         <v>1.352532801429922</v>
       </c>
       <c r="L28">
-        <f>(L4+L12)/L20</f>
+        <f t="shared" si="2"/>
         <v>1.3461122040746267</v>
       </c>
     </row>
@@ -4997,47 +4997,47 @@
         <v>4</v>
       </c>
       <c r="B29">
-        <f>(B5+B13)/B21</f>
+        <f t="shared" ref="B29:L29" si="3">(B5+B13)/B21</f>
         <v>1.4457696693272519</v>
       </c>
       <c r="C29">
-        <f>(C5+C13)/C21</f>
+        <f t="shared" si="3"/>
         <v>1.4524042772850243</v>
       </c>
       <c r="D29">
-        <f>(D5+D13)/D21</f>
+        <f t="shared" si="3"/>
         <v>1.4390794027058202</v>
       </c>
       <c r="E29">
-        <f>(E5+E13)/E21</f>
+        <f t="shared" si="3"/>
         <v>1.434569402062533</v>
       </c>
       <c r="F29">
-        <f>(F5+F13)/F21</f>
+        <f t="shared" si="3"/>
         <v>1.4194116911795343</v>
       </c>
       <c r="G29">
-        <f>(G5+G13)/G21</f>
+        <f t="shared" si="3"/>
         <v>1.4220333359930455</v>
       </c>
       <c r="H29">
-        <f>(H5+H13)/H21</f>
+        <f t="shared" si="3"/>
         <v>1.4336244087530536</v>
       </c>
       <c r="I29">
-        <f>(I5+I13)/I21</f>
+        <f t="shared" si="3"/>
         <v>1.4407456967615533</v>
       </c>
       <c r="J29">
-        <f>(J5+J13)/J21</f>
+        <f t="shared" si="3"/>
         <v>1.4460780672596609</v>
       </c>
       <c r="K29">
-        <f>(K5+K13)/K21</f>
+        <f t="shared" si="3"/>
         <v>1.4513679968212523</v>
       </c>
       <c r="L29">
-        <f>(L5+L13)/L21</f>
+        <f t="shared" si="3"/>
         <v>1.4388342621499917</v>
       </c>
     </row>
@@ -5046,47 +5046,47 @@
         <v>5</v>
       </c>
       <c r="B30">
-        <f>(B6+B14)/B22</f>
+        <f t="shared" ref="B30:L30" si="4">(B6+B14)/B22</f>
         <v>1.3847702257055976</v>
       </c>
       <c r="C30">
-        <f>(C6+C14)/C22</f>
+        <f t="shared" si="4"/>
         <v>1.3755665118043046</v>
       </c>
       <c r="D30">
-        <f>(D6+D14)/D22</f>
+        <f t="shared" si="4"/>
         <v>1.3484814896918644</v>
       </c>
       <c r="E30">
-        <f>(E6+E14)/E22</f>
+        <f t="shared" si="4"/>
         <v>1.3345707928328845</v>
       </c>
       <c r="F30">
-        <f>(F6+F14)/F22</f>
+        <f t="shared" si="4"/>
         <v>1.3415439219165928</v>
       </c>
       <c r="G30">
-        <f>(G6+G14)/G22</f>
+        <f t="shared" si="4"/>
         <v>1.3302867673610679</v>
       </c>
       <c r="H30">
-        <f>(H6+H14)/H22</f>
+        <f t="shared" si="4"/>
         <v>1.3266684713062309</v>
       </c>
       <c r="I30">
-        <f>(I6+I14)/I22</f>
+        <f t="shared" si="4"/>
         <v>1.3166458576664384</v>
       </c>
       <c r="J30">
-        <f>(J6+J14)/J22</f>
+        <f t="shared" si="4"/>
         <v>1.3165594966466154</v>
       </c>
       <c r="K30">
-        <f>(K6+K14)/K22</f>
+        <f t="shared" si="4"/>
         <v>1.3145434549994055</v>
       </c>
       <c r="L30">
-        <f>(L6+L14)/L22</f>
+        <f t="shared" si="4"/>
         <v>1.3105007381889764</v>
       </c>
     </row>
@@ -5095,47 +5095,47 @@
         <v>6</v>
       </c>
       <c r="B31">
-        <f>(B7+B15)/B23</f>
+        <f t="shared" ref="B31:L31" si="5">(B7+B15)/B23</f>
         <v>0.21139252665620697</v>
       </c>
       <c r="C31">
-        <f>(C7+C15)/C23</f>
+        <f t="shared" si="5"/>
         <v>0.21107686743767345</v>
       </c>
       <c r="D31">
-        <f>(D7+D15)/D23</f>
+        <f t="shared" si="5"/>
         <v>0.20746585518375865</v>
       </c>
       <c r="E31">
-        <f>(E7+E15)/E23</f>
+        <f t="shared" si="5"/>
         <v>0.19718360924070463</v>
       </c>
       <c r="F31">
-        <f>(F7+F15)/F23</f>
+        <f t="shared" si="5"/>
         <v>0.19467859690717623</v>
       </c>
       <c r="G31">
-        <f>(G7+G15)/G23</f>
+        <f t="shared" si="5"/>
         <v>0.19121574648439282</v>
       </c>
       <c r="H31">
-        <f>(H7+H15)/H23</f>
+        <f t="shared" si="5"/>
         <v>0.18688097027629491</v>
       </c>
       <c r="I31">
-        <f>(I7+I15)/I23</f>
+        <f t="shared" si="5"/>
         <v>0.18028978101839721</v>
       </c>
       <c r="J31">
-        <f>(J7+J15)/J23</f>
+        <f t="shared" si="5"/>
         <v>0.17368971835606775</v>
       </c>
       <c r="K31">
-        <f>(K7+K15)/K23</f>
+        <f t="shared" si="5"/>
         <v>0.1554441620207766</v>
       </c>
       <c r="L31">
-        <f>(L7+L15)/L23</f>
+        <f t="shared" si="5"/>
         <v>0.16785145780761623</v>
       </c>
     </row>
@@ -5185,51 +5185,51 @@
         <v>1</v>
       </c>
       <c r="B34">
-        <f>B2/(B2+B10)</f>
+        <f t="shared" ref="B34:M34" si="6">B2/(B2+B10)</f>
         <v>0.16236597870987024</v>
       </c>
       <c r="C34">
-        <f>C2/(C2+C10)</f>
+        <f t="shared" si="6"/>
         <v>0.16290146026167054</v>
       </c>
       <c r="D34">
-        <f>D2/(D2+D10)</f>
+        <f t="shared" si="6"/>
         <v>0.17437590427469235</v>
       </c>
       <c r="E34">
-        <f>E2/(E2+E10)</f>
+        <f t="shared" si="6"/>
         <v>0.1821220156444269</v>
       </c>
       <c r="F34">
-        <f>F2/(F2+F10)</f>
+        <f t="shared" si="6"/>
         <v>0.17363610944536964</v>
       </c>
       <c r="G34">
-        <f>G2/(G2+G10)</f>
+        <f t="shared" si="6"/>
         <v>0.17183256049820014</v>
       </c>
       <c r="H34">
-        <f>H2/(H2+H10)</f>
+        <f t="shared" si="6"/>
         <v>0.17669463374097311</v>
       </c>
       <c r="I34">
-        <f>I2/(I2+I10)</f>
+        <f t="shared" si="6"/>
         <v>0.19419507773458455</v>
       </c>
       <c r="J34">
-        <f>J2/(J2+J10)</f>
+        <f t="shared" si="6"/>
         <v>0.19761493682994832</v>
       </c>
       <c r="K34">
-        <f>K2/(K2+K10)</f>
+        <f t="shared" si="6"/>
         <v>0.20427497651111806</v>
       </c>
       <c r="L34">
-        <f>L2/(L2+L10)</f>
+        <f t="shared" si="6"/>
         <v>0.20808984416693349</v>
       </c>
       <c r="M34">
-        <f>M2/(M2+M10)</f>
+        <f t="shared" si="6"/>
         <v>0.21101630534179316</v>
       </c>
     </row>
@@ -5238,47 +5238,47 @@
         <v>2</v>
       </c>
       <c r="B35">
-        <f>B3/(B3+B11)</f>
+        <f t="shared" ref="B35:L35" si="7">B3/(B3+B11)</f>
         <v>1.3722865501868698E-2</v>
       </c>
       <c r="C35">
-        <f>C3/(C3+C11)</f>
+        <f t="shared" si="7"/>
         <v>1.4485831304149236E-2</v>
       </c>
       <c r="D35">
-        <f>D3/(D3+D11)</f>
+        <f t="shared" si="7"/>
         <v>1.4628763237744693E-2</v>
       </c>
       <c r="E35">
-        <f>E3/(E3+E11)</f>
+        <f t="shared" si="7"/>
         <v>1.512990540453671E-2</v>
       </c>
       <c r="F35">
-        <f>F3/(F3+F11)</f>
+        <f t="shared" si="7"/>
         <v>1.5865167588822695E-2</v>
       </c>
       <c r="G35">
-        <f>G3/(G3+G11)</f>
+        <f t="shared" si="7"/>
         <v>1.6317130312389679E-2</v>
       </c>
       <c r="H35">
-        <f>H3/(H3+H11)</f>
+        <f t="shared" si="7"/>
         <v>1.6296362418397721E-2</v>
       </c>
       <c r="I35">
-        <f>I3/(I3+I11)</f>
+        <f t="shared" si="7"/>
         <v>1.5703100085600632E-2</v>
       </c>
       <c r="J35">
-        <f>J3/(J3+J11)</f>
+        <f t="shared" si="7"/>
         <v>1.5051364675424827E-2</v>
       </c>
       <c r="K35">
-        <f>K3/(K3+K11)</f>
+        <f t="shared" si="7"/>
         <v>1.4523741094586309E-2</v>
       </c>
       <c r="L35">
-        <f>L3/(L3+L11)</f>
+        <f t="shared" si="7"/>
         <v>1.438962463917017E-2</v>
       </c>
     </row>
@@ -5287,47 +5287,47 @@
         <v>3</v>
       </c>
       <c r="B36">
-        <f>B4/(B4+B12)</f>
+        <f t="shared" ref="B36:L36" si="8">B4/(B4+B12)</f>
         <v>1.1006540118041155E-2</v>
       </c>
       <c r="C36">
-        <f>C4/(C4+C12)</f>
+        <f t="shared" si="8"/>
         <v>1.1344736485347071E-2</v>
       </c>
       <c r="D36">
-        <f>D4/(D4+D12)</f>
+        <f t="shared" si="8"/>
         <v>1.2075398956311014E-2</v>
       </c>
       <c r="E36">
-        <f>E4/(E4+E12)</f>
+        <f t="shared" si="8"/>
         <v>1.1453625440489864E-2</v>
       </c>
       <c r="F36">
-        <f>F4/(F4+F12)</f>
+        <f t="shared" si="8"/>
         <v>1.1803053823547849E-2</v>
       </c>
       <c r="G36">
-        <f>G4/(G4+G12)</f>
+        <f t="shared" si="8"/>
         <v>1.2286382721596455E-2</v>
       </c>
       <c r="H36">
-        <f>H4/(H4+H12)</f>
+        <f t="shared" si="8"/>
         <v>1.188161938486606E-2</v>
       </c>
       <c r="I36">
-        <f>I4/(I4+I12)</f>
+        <f t="shared" si="8"/>
         <v>1.1009031049111209E-2</v>
       </c>
       <c r="J36">
-        <f>J4/(J4+J12)</f>
+        <f t="shared" si="8"/>
         <v>9.9990099990099994E-3</v>
       </c>
       <c r="K36">
-        <f>K4/(K4+K12)</f>
+        <f t="shared" si="8"/>
         <v>8.8580320804405067E-3</v>
       </c>
       <c r="L36">
-        <f>L4/(L4+L12)</f>
+        <f t="shared" si="8"/>
         <v>9.3231519217659552E-3</v>
       </c>
     </row>
@@ -5336,47 +5336,47 @@
         <v>4</v>
       </c>
       <c r="B37">
-        <f>B5/(B5+B13)</f>
+        <f t="shared" ref="B37:L37" si="9">B5/(B5+B13)</f>
         <v>1.8654931095582861E-2</v>
       </c>
       <c r="C37">
-        <f>C5/(C5+C13)</f>
+        <f t="shared" si="9"/>
         <v>1.8107717571490461E-2</v>
       </c>
       <c r="D37">
-        <f>D5/(D5+D13)</f>
+        <f t="shared" si="9"/>
         <v>1.807799734463059E-2</v>
       </c>
       <c r="E37">
-        <f>E5/(E5+E13)</f>
+        <f t="shared" si="9"/>
         <v>1.7526531710654769E-2</v>
       </c>
       <c r="F37">
-        <f>F5/(F5+F13)</f>
+        <f t="shared" si="9"/>
         <v>1.7077960390168873E-2</v>
       </c>
       <c r="G37">
-        <f>G5/(G5+G13)</f>
+        <f t="shared" si="9"/>
         <v>1.6741677888818012E-2</v>
       </c>
       <c r="H37">
-        <f>H5/(H5+H13)</f>
+        <f t="shared" si="9"/>
         <v>1.5502540954383675E-2</v>
       </c>
       <c r="I37">
-        <f>I5/(I5+I13)</f>
+        <f t="shared" si="9"/>
         <v>1.4977652391669573E-2</v>
       </c>
       <c r="J37">
-        <f>J5/(J5+J13)</f>
+        <f t="shared" si="9"/>
         <v>1.3602319168130058E-2</v>
       </c>
       <c r="K37">
-        <f>K5/(K5+K13)</f>
+        <f t="shared" si="9"/>
         <v>1.3330074146500448E-2</v>
       </c>
       <c r="L37">
-        <f>L5/(L5+L13)</f>
+        <f t="shared" si="9"/>
         <v>1.3045873482065304E-2</v>
       </c>
     </row>
@@ -5385,47 +5385,47 @@
         <v>5</v>
       </c>
       <c r="B38">
-        <f>B6/(B6+B14)</f>
+        <f t="shared" ref="B38:L38" si="10">B6/(B6+B14)</f>
         <v>4.7753069619274426E-2</v>
       </c>
       <c r="C38">
-        <f>C6/(C6+C14)</f>
+        <f t="shared" si="10"/>
         <v>4.9916942949111184E-2</v>
       </c>
       <c r="D38">
-        <f>D6/(D6+D14)</f>
+        <f t="shared" si="10"/>
         <v>4.7106690777576857E-2</v>
       </c>
       <c r="E38">
-        <f>E6/(E6+E14)</f>
+        <f t="shared" si="10"/>
         <v>4.5911248782456851E-2</v>
       </c>
       <c r="F38">
-        <f>F6/(F6+F14)</f>
+        <f t="shared" si="10"/>
         <v>4.6898424960756302E-2</v>
       </c>
       <c r="G38">
-        <f>G6/(G6+G14)</f>
+        <f t="shared" si="10"/>
         <v>4.4077728064099445E-2</v>
       </c>
       <c r="H38">
-        <f>H6/(H6+H14)</f>
+        <f t="shared" si="10"/>
         <v>4.2848795689151467E-2</v>
       </c>
       <c r="I38">
-        <f>I6/(I6+I14)</f>
+        <f t="shared" si="10"/>
         <v>4.358997889327338E-2</v>
       </c>
       <c r="J38">
-        <f>J6/(J6+J14)</f>
+        <f t="shared" si="10"/>
         <v>4.4881153696681969E-2</v>
       </c>
       <c r="K38">
-        <f>K6/(K6+K14)</f>
+        <f t="shared" si="10"/>
         <v>4.5131312674527718E-2</v>
       </c>
       <c r="L38">
-        <f>L6/(L6+L14)</f>
+        <f t="shared" si="10"/>
         <v>4.6506442603328091E-2</v>
       </c>
     </row>
@@ -5434,47 +5434,47 @@
         <v>6</v>
       </c>
       <c r="B39">
-        <f>B7/(B7+B15)</f>
+        <f t="shared" ref="B39:L39" si="11">B7/(B7+B15)</f>
         <v>1.3905275913200147E-2</v>
       </c>
       <c r="C39">
-        <f>C7/(C7+C15)</f>
+        <f t="shared" si="11"/>
         <v>1.4158156666770132E-2</v>
       </c>
       <c r="D39">
-        <f>D7/(D7+D15)</f>
+        <f t="shared" si="11"/>
         <v>1.4106740218821929E-2</v>
       </c>
       <c r="E39">
-        <f>E7/(E7+E15)</f>
+        <f t="shared" si="11"/>
         <v>1.309959458974635E-2</v>
       </c>
       <c r="F39">
-        <f>F7/(F7+F15)</f>
+        <f t="shared" si="11"/>
         <v>1.221729975114174E-2</v>
       </c>
       <c r="G39">
-        <f>G7/(G7+G15)</f>
+        <f t="shared" si="11"/>
         <v>1.1910777955585502E-2</v>
       </c>
       <c r="H39">
-        <f>H7/(H7+H15)</f>
+        <f t="shared" si="11"/>
         <v>1.1341344919884134E-2</v>
       </c>
       <c r="I39">
-        <f>I7/(I7+I15)</f>
+        <f t="shared" si="11"/>
         <v>1.0826457472843172E-2</v>
       </c>
       <c r="J39">
-        <f>J7/(J7+J15)</f>
+        <f t="shared" si="11"/>
         <v>1.0332907772825348E-2</v>
       </c>
       <c r="K39">
-        <f>K7/(K7+K15)</f>
+        <f t="shared" si="11"/>
         <v>9.7327236151945745E-3</v>
       </c>
       <c r="L39">
-        <f>L7/(L7+L15)</f>
+        <f t="shared" si="11"/>
         <v>1.0114185087821099E-2</v>
       </c>
     </row>
